--- a/similarities/split_global/harmonic_similarity_timestamps_275.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_275.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,694 +484,730 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_137</t>
+          <t>schubert-winterreise_132</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_193</t>
+          <t>schubert-winterreise_210</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['A:min', 'A:min/E', 'E:7', 'A:min'], ['C:maj', 'A:min/E', 'E:7', 'A:min']]</t>
+          <t>['F:min/C', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['C:min', 'C:min/G', 'G:7', 'C:min'], ['D#/G', 'C:min/G', 'G:7', 'C:min']]</t>
+          <t>['G:min', 'D:7/G', 'G:min']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:44.820000', '0:00:56.280000'), ('0:00:38.740000', '0:00:47.140000')]</t>
+          <t>('0:00:43.680000', '0:00:45.800000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:23.080000', '0:00:30.020000'), ('0:01:04.680000', '0:01:10.020000')]</t>
+          <t>('0:00:16.580000', '0:00:22.660000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-137#t=44.82', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-137#t=38.74']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=43.68</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-193#t=23.08', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-193#t=64.68']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-210#t=16.58</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_141</t>
+          <t>isophonics_114</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_3</t>
+          <t>schubert-winterreise_183</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:maj', 'F:maj'], ['G:maj/B', 'C:maj/E', 'F:maj'], ['G:min/A#', 'F:maj/C', 'C:maj']]</t>
+          <t>['E', 'A', 'E']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['G', 'D', 'G'], ['A', 'D', 'G'], ['A:min', 'G', 'D/3']]</t>
+          <t>['D:maj/A', 'G:maj', 'D:maj/A']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:00.780000', '0:00:24.860000'), ('0:03:26.500000', '0:03:29.360000'), ('0:01:30.500000', '0:01:35.840000')]</t>
+          <t>('0:00:06.726778', '0:00:13.147096')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:01.014823', '0:00:06.126439'), ('0:01:02.748299', '0:01:07.543219'), ('0:00:17.573877', '0:00:21.207800')]</t>
+          <t>('0:02:08.540000', '0:02:12.840000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-141#t=0.78', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-141#t=206.5', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-141#t=90.5']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-114#t=6.726778</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-3#t=1.014823', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-3#t=62.748299', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-3#t=17.573877']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-183#t=128.54</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>spotify:track:68BTFws92cRztMS1oQ7Ewj</t>
-        </is>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
+          <t>schubert-winterreise_110</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_6</t>
+          <t>schubert-winterreise_44</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'G#:maj', 'D#:maj', 'G#:maj', 'D#:maj']]</t>
+          <t>['C#:hdim7/B', 'B:min', 'C#:hdim7/B', 'B:min']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['D', 'G/5', 'D', 'G/5', 'D']]</t>
+          <t>['C:hdim7/D#', 'A#:min/C#', 'C:hdim7/D#', 'A#:min/C#']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:02:07.600000', '0:02:13.760000')]</t>
+          <t>('0:00:06.180000', '0:00:24.580000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:20.432000', '0:00:26.250000')]</t>
+          <t>('0:00:59.100000', '0:01:09')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=127.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-110#t=6.18</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-6#t=20.432']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=59.1</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_147</t>
+          <t>schubert-winterreise_155</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_283</t>
+          <t>schubert-winterreise_141</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['A', 'B', 'E'], ['B', 'E', 'A']]</t>
+          <t>['C:maj', 'G:maj', 'C:maj']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['C', 'D', 'G'], ['D', 'G', 'C']]</t>
+          <t>['F:maj', 'C:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:12.971000', '0:00:23.861000'), ('0:00:14.033000', '0:00:28.278000')]</t>
+          <t>('0:00:10.460000', '0:00:12.580000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:01:05.382154', '0:01:17.688730'), ('0:00:59.333356', '0:01:08.841927')]</t>
+          <t>('0:00:00.780000', '0:00:24.860000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-147#t=12.971', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-147#t=14.033']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-155#t=10.46</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-283#t=65.382154', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-283#t=59.333356']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-141#t=0.78</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>spotify:track:3tGhRLgcCP6SIZU3tbGl7l</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_2</t>
+          <t>isophonics_227</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_185</t>
+          <t>schubert-winterreise_75</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['C:min', 'F:maj', 'Bb:maj']]</t>
+          <t>['E:7', 'A:min', 'D:min']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['B:min', 'E', 'A']]</t>
+          <t>['C:7', 'F:min', 'A#:min/C#']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:01:02.760000', '0:01:12.921000')]</t>
+          <t>('0:00:20.045192', '0:00:25.141972')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:48.617346', '0:00:59.937074')]</t>
+          <t>('0:00:24.420000', '0:00:32.620000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-2#t=62.76']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-227#t=20.045192</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-185#t=48.617346']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-75#t=24.42</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_232</t>
+          <t>schubert-winterreise_46</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_66</t>
+          <t>schubert-winterreise_191</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['A:min', 'C', 'A:min'], ['F', 'C', 'F']]</t>
+          <t>['G:min', 'D:7/G', 'G:min']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['C:min/D#', 'D#/G', 'C:min/G'], ['G#/C', 'D#', 'G#']]</t>
+          <t>['B:min', 'F#:7/C#', 'B:min/D']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:01:12.754489', '0:01:20.463514'), ('0:00:18.071496', '0:00:23.725555')]</t>
+          <t>('0:00:21.140000', '0:00:27.920000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:01:04.280000', '0:01:07.880000'), ('0:00:52.180000', '0:00:56.760000')]</t>
+          <t>('0:00:00.680000', '0:00:02.980000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-232#t=72.754489', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-232#t=18.071496']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-46#t=21.14</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-66#t=64.28', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-66#t=52.18']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-191#t=0.68</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_121</t>
+          <t>isophonics_155</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_115</t>
+          <t>isophonics_236</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['A#:7/F', 'D#/G', 'A#:7', 'D#'], ['D#/G', 'C:min/G', 'G:7', 'C:min']]</t>
+          <t>['Db/5', 'Ab', 'Db/5']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj/C', 'C:7', 'F:maj'], ['F:maj', 'D:min/A', 'A:7', 'D:min']]</t>
+          <t>['G:maj', 'D:maj', 'G:maj']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:46.960000', '0:00:50.740000'), ('0:01:12.680000', '0:01:18.700000')]</t>
+          <t>('0:04:24.615000', '0:04:33.028000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:01:38.620000', '0:01:52.500000'), ('0:01:48.500000', '0:02:05.020000')]</t>
+          <t>('0:00:11.820000', '0:00:17.361000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-121#t=46.96', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-121#t=72.68']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-155#t=264.615</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-115#t=98.62', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-115#t=108.5']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-236#t=11.82</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_200</t>
+          <t>isophonics_216</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_48</t>
+          <t>schubert-winterreise_133</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['E:maj', 'B:7', 'E:maj']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:01.340000', '0:00:08.860000')]</t>
+          <t>('0:00:28.009637', '0:00:33.826235')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:59.500000', '0:01:08.120000')]</t>
+          <t>('0:01:01.600000', '0:01:03.840000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-200#t=1.34']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-216#t=28.009637</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-48#t=59.5']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-133#t=61.6</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_141</t>
+          <t>isophonics_19</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_133</t>
+          <t>schubert-winterreise_36</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['F', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
+          <t>['G:maj', 'G:7/F', 'C:maj/E']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:01:11.640000', '0:01:23.380000')]</t>
+          <t>('0:00:38.438956', '0:00:41.945170')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:01:02.420000', '0:01:04.620000')]</t>
+          <t>('0:00:59.400000', '0:01:07.940000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-141#t=71.64']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-19#t=38.438956</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-133#t=62.42']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=59.4</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_57</t>
+          <t>isophonics_34</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_73</t>
+          <t>schubert-winterreise_84</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G']]</t>
+          <t>['Eb', 'Eb:7/b7', 'Ab']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['D#:maj', 'D#:7', 'G#:maj']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:04.155032', '0:00:07.525011')]</t>
+          <t>('0:00:07.604557', '0:00:16.370090')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:01:05.200000', '0:01:07.500000')]</t>
+          <t>('0:00:15.640000', '0:00:24.280000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-57#t=4.155032']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-34#t=7.604557</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-73#t=65.2']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-84#t=15.64</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_46</t>
+          <t>jaah_3</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
+          <t>isophonics_31</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min']]</t>
+          <t>['Eb', 'Ab', 'Eb']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['D#:min', 'A#:7', 'D#:min', 'A#:maj', 'D#:min']]</t>
+          <t>['G', 'C', 'G']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:25.480000', '0:00:56.440000')]</t>
+          <t>('0:02:16.070000', '0:02:21.510000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:12.320000', '0:00:19.900000')]</t>
+          <t>('0:00:17.581738', '0:00:30.271443')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-46#t=25.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-3#t=136.07</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=12.32']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-31#t=17.581738</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_6</t>
+          <t>schubert-winterreise_141</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_78</t>
+          <t>schubert-winterreise_9</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['G/5', 'D', 'G/5', 'D']]</t>
+          <t>['F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['D', 'A', 'D', 'A']]</t>
+          <t>['F:maj/A', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:21.391000', '0:00:26.250000')]</t>
+          <t>('0:01:12.640000', '0:01:23.380000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:37.738798', '0:00:47.769818')]</t>
+          <t>('0:00:19.860000', '0:00:22.320000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-6#t=21.391']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-141#t=72.64</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-78#t=37.738798']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-9#t=19.86</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>jaah_41</t>
+          <t>isophonics_78</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>jaah_4</t>
+          <t>isophonics_296</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['G:min7', 'C:7', 'F']]</t>
+          <t>['D', 'A', 'E', 'D']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['Bb:min7', 'Eb:7', 'Ab/3']]</t>
+          <t>['C:maj', 'G:maj', 'D:maj', 'C:maj']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:09.060000', '0:00:12.300000')]</t>
+          <t>('0:01:40.421065', '0:01:47.363832')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:24.460000', '0:00:30.010000')]</t>
+          <t>('0:00:31.672000', '0:00:37.551000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-41#t=9.06']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-78#t=100.421065</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-4#t=24.46']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-296#t=31.672</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_178</t>
+          <t>schubert-winterreise_95</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_14</t>
+          <t>schubert-winterreise_185</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min'], ['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj']]</t>
+          <t>['D#/G', 'A#:7/F', 'D#/G']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min'], ['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj']]</t>
+          <t>['D:maj/F#', 'A:7', 'D:maj']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:02.300000', '0:00:09.880000'), ('0:00:01.140000', '0:00:07.700000')]</t>
+          <t>('0:00:35.860000', '0:00:37.440000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:10.560000', '0:00:23.760000'), ('0:00:08.980000', '0:00:20.700000')]</t>
+          <t>('0:00:39.800000', '0:00:45.400000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-178#t=2.3', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-178#t=1.14']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-95#t=35.86</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-14#t=10.56', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-14#t=8.98']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-185#t=39.8</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_5</t>
+          <t>jaah_1</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>schubert-winterreise_102</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>['Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj/F', 'F:maj']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:09.162102', '0:00:14.073123')]</t>
+          <t>('0:00:00.720000', '0:00:17.050000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:17.340000', '0:00:24.400000')]</t>
+          <t>('0:00:16.840000', '0:00:19.460000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-5#t=9.162102']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-1#t=0.72</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=17.34']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-102#t=16.84</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
